--- a/configs/list of recollectors.xlsx
+++ b/configs/list of recollectors.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{6E0DADC8-49D6-4A5D-88DC-C2EDFE0A78A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{189F67ED-5F99-4D64-B148-707048E0D311}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD16B39-6DF2-44B4-8676-27FFBBCA10BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Nombre</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Denis Araque</t>
+  </si>
+  <si>
+    <t>Carlos Ayala</t>
   </si>
 </sst>
 </file>
@@ -109,9 +112,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,13 +394,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -508,13 +510,13 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5930000000</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>5930000000</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -522,13 +524,27 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5930000000</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>5930000000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>5930000000</v>
+      </c>
+      <c r="D10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -539,8 +555,9 @@
     <hyperlink ref="B5:B7" r:id="rId2" display="marco.benalcazar@epn.edu.ec" xr:uid="{AE33B052-0220-4283-8AB8-E4CDB9C11305}"/>
     <hyperlink ref="B8" r:id="rId3" display="marco.benalcazar@epn.edu.ec" xr:uid="{F6320B9F-8824-4659-98B5-212233C2542F}"/>
     <hyperlink ref="B9" r:id="rId4" display="marco.benalcazar@epn.edu.ec" xr:uid="{2AED33BF-B25D-44B2-89A6-F3D41C650A74}"/>
+    <hyperlink ref="B10" r:id="rId5" display="marco.benalcazar@epn.edu.ec" xr:uid="{E9A05F47-E1D4-4193-A1A6-64DF2D9F96CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId6"/>
 </worksheet>
 </file>
--- a/configs/list of recollectors.xlsx
+++ b/configs/list of recollectors.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD16B39-6DF2-44B4-8676-27FFBBCA10BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13B19A64-E0F4-4814-ACFC-760EDFEEA84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>Nombre</t>
   </si>
@@ -71,6 +71,27 @@
   </si>
   <si>
     <t>Carlos Ayala</t>
+  </si>
+  <si>
+    <t>Samantha Vilaña</t>
+  </si>
+  <si>
+    <t>Pablo Maldonado</t>
+  </si>
+  <si>
+    <t>Rodrigo Haro</t>
+  </si>
+  <si>
+    <t>Alexander Motoche</t>
+  </si>
+  <si>
+    <t>Stiven Moposita</t>
+  </si>
+  <si>
+    <t>Daniel Lorences</t>
+  </si>
+  <si>
+    <t>Emilio Jacome</t>
   </si>
 </sst>
 </file>
@@ -394,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,6 +569,104 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>5930000000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>5930000000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>5930000000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>5930000000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>5930000000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>5930000000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>5930000000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -556,8 +675,15 @@
     <hyperlink ref="B8" r:id="rId3" display="marco.benalcazar@epn.edu.ec" xr:uid="{F6320B9F-8824-4659-98B5-212233C2542F}"/>
     <hyperlink ref="B9" r:id="rId4" display="marco.benalcazar@epn.edu.ec" xr:uid="{2AED33BF-B25D-44B2-89A6-F3D41C650A74}"/>
     <hyperlink ref="B10" r:id="rId5" display="marco.benalcazar@epn.edu.ec" xr:uid="{E9A05F47-E1D4-4193-A1A6-64DF2D9F96CA}"/>
+    <hyperlink ref="B11" r:id="rId6" display="marco.benalcazar@epn.edu.ec" xr:uid="{83B46833-1096-4470-BDFB-ECFEE9C8F041}"/>
+    <hyperlink ref="B12" r:id="rId7" display="marco.benalcazar@epn.edu.ec" xr:uid="{ED6BB0FF-F0C5-44CD-823C-DC64FCB714C8}"/>
+    <hyperlink ref="B13" r:id="rId8" display="marco.benalcazar@epn.edu.ec" xr:uid="{8EFD3E44-6025-4B48-A1FC-25FD0166B12A}"/>
+    <hyperlink ref="B14" r:id="rId9" display="marco.benalcazar@epn.edu.ec" xr:uid="{707C0C48-B75D-4AB5-98ED-225BCE463F33}"/>
+    <hyperlink ref="B15" r:id="rId10" display="marco.benalcazar@epn.edu.ec" xr:uid="{73BECA0B-3D06-4078-9827-2EEC02E28612}"/>
+    <hyperlink ref="B16" r:id="rId11" display="marco.benalcazar@epn.edu.ec" xr:uid="{2B6873D7-2385-4955-A8F2-0734431CBF03}"/>
+    <hyperlink ref="B17" r:id="rId12" display="marco.benalcazar@epn.edu.ec" xr:uid="{A55FF558-81AE-4882-9679-9E4790124491}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId13"/>
 </worksheet>
 </file>